--- a/classes/econ_5120/02_lecture/Growth_Worksheet.xlsx
+++ b/classes/econ_5120/02_lecture/Growth_Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottpayseur/trash_this/payseur.github.io/classes/econ_5120/02_lecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FDBB51-D86F-9A4C-8139-418111B8A273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBE83AA-07A5-E244-BB41-1BB0743C061B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{9FF704EE-2732-2E4A-A605-BC46D904014F}"/>
+    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{9FF704EE-2732-2E4A-A605-BC46D904014F}"/>
   </bookViews>
   <sheets>
     <sheet name="simulated gdp" sheetId="1" r:id="rId1"/>
@@ -2876,370 +2876,370 @@
                   <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5897.3656931191681</c:v>
+                  <c:v>6293.3840849585786</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5976.760133470214</c:v>
+                  <c:v>6400.6886724342294</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6154.2182551991864</c:v>
+                  <c:v>6529.0084814672709</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6238.1530427517946</c:v>
+                  <c:v>6706.2851065061732</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6323.6995566047972</c:v>
+                  <c:v>6926.1343386904227</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6464.5205088336043</c:v>
+                  <c:v>7155.923380444724</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6469.5804087794695</c:v>
+                  <c:v>7210.8925068894605</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6513.7474969172272</c:v>
+                  <c:v>7082.8356694129034</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6719.7815555584957</c:v>
+                  <c:v>7224.2824467939208</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6735.2618979889121</c:v>
+                  <c:v>7421.8675434726001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6967.2191796679954</c:v>
+                  <c:v>7270.0427749130231</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7147.7651255950996</c:v>
+                  <c:v>7439.8024908932939</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7193.3140628242254</c:v>
+                  <c:v>7596.2943960556158</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7430.3937553138585</c:v>
+                  <c:v>7583.2955691771576</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7662.8656387025812</c:v>
+                  <c:v>7691.0224287478914</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7959.6996725734607</c:v>
+                  <c:v>7591.2611464327629</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8147.5900904990822</c:v>
+                  <c:v>7770.4588942982236</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8615.195708381525</c:v>
+                  <c:v>7930.2021628619332</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8880.8911173210727</c:v>
+                  <c:v>8081.9977025062726</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9140.532972143621</c:v>
+                  <c:v>8128.4582284174867</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9415.8020957087083</c:v>
+                  <c:v>8254.3838139864947</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9840.4971385053632</c:v>
+                  <c:v>8295.834933303091</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10287.643645146929</c:v>
+                  <c:v>8636.7738081592761</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10264.367875693755</c:v>
+                  <c:v>8710.4328009257588</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10481.869867366975</c:v>
+                  <c:v>8817.4510598895158</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10722.444172728445</c:v>
+                  <c:v>9107.1804652494247</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10887.733389173723</c:v>
+                  <c:v>9211.2429934283737</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11480.339777086805</c:v>
+                  <c:v>9316.3006403574018</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11907.004828598883</c:v>
+                  <c:v>9483.1499143276214</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12260.623544798913</c:v>
+                  <c:v>9772.0507527497466</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12372.435777034481</c:v>
+                  <c:v>9953.3021915522913</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12525.49697605063</c:v>
+                  <c:v>10321.925651531201</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12970.90565016292</c:v>
+                  <c:v>10550.208656959016</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13414.593100684458</c:v>
+                  <c:v>10590.608355927567</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>13820.670025304686</c:v>
+                  <c:v>10615.138562122689</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>14409.609997798203</c:v>
+                  <c:v>10862.62018283352</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>15129.605861873983</c:v>
+                  <c:v>10923.169081693552</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>15684.801058559047</c:v>
+                  <c:v>11000.887621707652</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>16151.712564562666</c:v>
+                  <c:v>11375.605395356328</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>16207.543176077668</c:v>
+                  <c:v>11983.156977530793</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>16543.986058897914</c:v>
+                  <c:v>12289.935184699039</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>16576.256639813058</c:v>
+                  <c:v>12440.568363095215</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>17009.817885397377</c:v>
+                  <c:v>12664.724584662225</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>17483.229827837557</c:v>
+                  <c:v>13015.811171193332</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17782.592981172471</c:v>
+                  <c:v>13345.868854094608</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>18520.232794244061</c:v>
+                  <c:v>13607.353238198441</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>18693.735070738476</c:v>
+                  <c:v>13898.140985985496</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>18616.187724931147</c:v>
+                  <c:v>13894.480183053693</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>18562.405882424639</c:v>
+                  <c:v>14577.885410067167</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>18509.797638019096</c:v>
+                  <c:v>15040.395075292008</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>18873.694485552194</c:v>
+                  <c:v>15381.224737881155</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>18872.148346877915</c:v>
+                  <c:v>15383.169189127837</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>18964.167634781399</c:v>
+                  <c:v>15891.022542192017</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19616.64556510215</c:v>
+                  <c:v>15904.100748825969</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>19694.775829628485</c:v>
+                  <c:v>16588.981121775254</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>19895.041170231812</c:v>
+                  <c:v>16972.462926266406</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>20435.816356535539</c:v>
+                  <c:v>17442.136144121345</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>20764.778999401457</c:v>
+                  <c:v>17387.698226054123</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>21255.499459425038</c:v>
+                  <c:v>17609.815484831706</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>21926.853748505117</c:v>
+                  <c:v>17919.566632612637</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>22423.761634620627</c:v>
+                  <c:v>18101.151041000117</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>22935.761389198906</c:v>
+                  <c:v>18386.128983874903</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>23354.652779246895</c:v>
+                  <c:v>18523.145094250332</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>23626.164998012056</c:v>
+                  <c:v>19504.366331728019</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>23850.987539258309</c:v>
+                  <c:v>19713.13237533037</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>24722.431134314142</c:v>
+                  <c:v>20301.431025296537</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>24391.650533051557</c:v>
+                  <c:v>20499.771604329595</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>25479.52055102399</c:v>
+                  <c:v>20995.005213221782</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>25645.206722829498</c:v>
+                  <c:v>21087.822247613014</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>25901.865467181127</c:v>
+                  <c:v>21189.830186663374</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>26288.813232456865</c:v>
+                  <c:v>21623.153333109873</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>27543.868291272003</c:v>
+                  <c:v>21873.215943785661</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>27939.031744300468</c:v>
+                  <c:v>22384.468041832224</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>28095.010690486753</c:v>
+                  <c:v>23078.296451455277</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>28579.173030934351</c:v>
+                  <c:v>23604.549476235323</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>29382.710729655377</c:v>
+                  <c:v>24301.867930657016</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>29975.840768951766</c:v>
+                  <c:v>24153.544811818341</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>30242.262137621579</c:v>
+                  <c:v>24273.550594561533</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>31309.090514838932</c:v>
+                  <c:v>25067.603019632777</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>32065.2010510664</c:v>
+                  <c:v>25340.600723351807</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>32108.216681115435</c:v>
+                  <c:v>26258.095763968817</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>32527.728412909924</c:v>
+                  <c:v>26257.207350014494</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>33581.433300019286</c:v>
+                  <c:v>26767.730926468623</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>33997.645070392588</c:v>
+                  <c:v>27408.597725725696</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>34140.84752399526</c:v>
+                  <c:v>28260.609278421838</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>34590.735991715017</c:v>
+                  <c:v>28523.084637668082</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>35231.573860161778</c:v>
+                  <c:v>29686.23753557869</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>35010.4527309408</c:v>
+                  <c:v>30509.778021039503</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>35930.514487979439</c:v>
+                  <c:v>31753.274756506362</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>36490.692057701825</c:v>
+                  <c:v>31874.022463961632</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>36865.538150927743</c:v>
+                  <c:v>32029.155864067357</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>37210.164790055176</c:v>
+                  <c:v>32780.041590186345</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>36891.991184258171</c:v>
+                  <c:v>32301.866679513183</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>37620.901959567491</c:v>
+                  <c:v>33431.736807857073</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>37611.249779121121</c:v>
+                  <c:v>34789.704037847914</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>38111.767163207471</c:v>
+                  <c:v>34919.647055448957</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>39030.864560583286</c:v>
+                  <c:v>36260.508924590038</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>39690.076465610051</c:v>
+                  <c:v>36993.090737260245</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>39265.032376930896</c:v>
+                  <c:v>38139.484203846048</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>40833.951240866882</c:v>
+                  <c:v>38989.390816075589</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>41108.055124672341</c:v>
+                  <c:v>39405.857136658989</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>41823.095224444303</c:v>
+                  <c:v>41084.845999404999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>42801.710825911156</c:v>
+                  <c:v>41610.043271170412</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43559.697650935959</c:v>
+                  <c:v>42394.1707755811</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>44497.257911303699</c:v>
+                  <c:v>42349.379565318108</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>45692.499523996426</c:v>
+                  <c:v>41571.689235580918</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>47406.35361136368</c:v>
+                  <c:v>41912.409129187537</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>47880.095415485317</c:v>
+                  <c:v>42225.33042983483</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>49126.186471086665</c:v>
+                  <c:v>42726.247677266831</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>50298.040959323582</c:v>
+                  <c:v>44150.400221914744</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>51272.474541603675</c:v>
+                  <c:v>45266.837731713502</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>52505.671924925751</c:v>
+                  <c:v>46122.214857051251</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>53179.565745088796</c:v>
+                  <c:v>47285.393746915142</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>53206.878277553464</c:v>
+                  <c:v>48701.725132975087</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>54887.86326612431</c:v>
+                  <c:v>49585.853611231942</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>57111.033441764055</c:v>
+                  <c:v>51584.888499937915</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>57300.207380174128</c:v>
+                  <c:v>52890.788581253932</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>58869.528647537409</c:v>
+                  <c:v>53741.197465311088</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>59193.499989908065</c:v>
+                  <c:v>56160.614700589787</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>61637.562894322633</c:v>
+                  <c:v>56685.836436642894</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>64074.713758451529</c:v>
+                  <c:v>56573.467500664599</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>67144.17868879289</c:v>
+                  <c:v>57876.549676317598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3932,370 +3932,370 @@
                   <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5897.3656931191681</c:v>
+                  <c:v>6293.3840849585786</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5976.760133470214</c:v>
+                  <c:v>6400.6886724342294</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6154.2182551991864</c:v>
+                  <c:v>6529.0084814672709</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6238.1530427517946</c:v>
+                  <c:v>6706.2851065061732</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6323.6995566047972</c:v>
+                  <c:v>6926.1343386904227</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6464.5205088336043</c:v>
+                  <c:v>7155.923380444724</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6469.5804087794695</c:v>
+                  <c:v>7210.8925068894605</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6513.7474969172272</c:v>
+                  <c:v>7082.8356694129034</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6719.7815555584957</c:v>
+                  <c:v>7224.2824467939208</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6735.2618979889121</c:v>
+                  <c:v>7421.8675434726001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6967.2191796679954</c:v>
+                  <c:v>7270.0427749130231</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7147.7651255950996</c:v>
+                  <c:v>7439.8024908932939</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7193.3140628242254</c:v>
+                  <c:v>7596.2943960556158</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7430.3937553138585</c:v>
+                  <c:v>7583.2955691771576</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7662.8656387025812</c:v>
+                  <c:v>7691.0224287478914</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7959.6996725734607</c:v>
+                  <c:v>7591.2611464327629</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8147.5900904990822</c:v>
+                  <c:v>7770.4588942982236</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8615.195708381525</c:v>
+                  <c:v>7930.2021628619332</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8880.8911173210727</c:v>
+                  <c:v>8081.9977025062726</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9140.532972143621</c:v>
+                  <c:v>8128.4582284174867</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9415.8020957087083</c:v>
+                  <c:v>8254.3838139864947</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9840.4971385053632</c:v>
+                  <c:v>8295.834933303091</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10287.643645146929</c:v>
+                  <c:v>8636.7738081592761</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10264.367875693755</c:v>
+                  <c:v>8710.4328009257588</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10481.869867366975</c:v>
+                  <c:v>8817.4510598895158</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10722.444172728445</c:v>
+                  <c:v>9107.1804652494247</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10887.733389173723</c:v>
+                  <c:v>9211.2429934283737</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11480.339777086805</c:v>
+                  <c:v>9316.3006403574018</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11907.004828598883</c:v>
+                  <c:v>9483.1499143276214</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12260.623544798913</c:v>
+                  <c:v>9772.0507527497466</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12372.435777034481</c:v>
+                  <c:v>9953.3021915522913</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12525.49697605063</c:v>
+                  <c:v>10321.925651531201</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12970.90565016292</c:v>
+                  <c:v>10550.208656959016</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13414.593100684458</c:v>
+                  <c:v>10590.608355927567</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>13820.670025304686</c:v>
+                  <c:v>10615.138562122689</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>14409.609997798203</c:v>
+                  <c:v>10862.62018283352</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>15129.605861873983</c:v>
+                  <c:v>10923.169081693552</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>15684.801058559047</c:v>
+                  <c:v>11000.887621707652</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>16151.712564562666</c:v>
+                  <c:v>11375.605395356328</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>16207.543176077668</c:v>
+                  <c:v>11983.156977530793</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>16543.986058897914</c:v>
+                  <c:v>12289.935184699039</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>16576.256639813058</c:v>
+                  <c:v>12440.568363095215</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>17009.817885397377</c:v>
+                  <c:v>12664.724584662225</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>17483.229827837557</c:v>
+                  <c:v>13015.811171193332</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17782.592981172471</c:v>
+                  <c:v>13345.868854094608</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>18520.232794244061</c:v>
+                  <c:v>13607.353238198441</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>18693.735070738476</c:v>
+                  <c:v>13898.140985985496</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>18616.187724931147</c:v>
+                  <c:v>13894.480183053693</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>18562.405882424639</c:v>
+                  <c:v>14577.885410067167</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>18509.797638019096</c:v>
+                  <c:v>15040.395075292008</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>18873.694485552194</c:v>
+                  <c:v>15381.224737881155</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>18872.148346877915</c:v>
+                  <c:v>15383.169189127837</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>18964.167634781399</c:v>
+                  <c:v>15891.022542192017</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19616.64556510215</c:v>
+                  <c:v>15904.100748825969</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>19694.775829628485</c:v>
+                  <c:v>16588.981121775254</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>19895.041170231812</c:v>
+                  <c:v>16972.462926266406</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>20435.816356535539</c:v>
+                  <c:v>17442.136144121345</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>20764.778999401457</c:v>
+                  <c:v>17387.698226054123</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>21255.499459425038</c:v>
+                  <c:v>17609.815484831706</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>21926.853748505117</c:v>
+                  <c:v>17919.566632612637</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>22423.761634620627</c:v>
+                  <c:v>18101.151041000117</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>22935.761389198906</c:v>
+                  <c:v>18386.128983874903</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>23354.652779246895</c:v>
+                  <c:v>18523.145094250332</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>23626.164998012056</c:v>
+                  <c:v>19504.366331728019</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>23850.987539258309</c:v>
+                  <c:v>19713.13237533037</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>24722.431134314142</c:v>
+                  <c:v>20301.431025296537</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>24391.650533051557</c:v>
+                  <c:v>20499.771604329595</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>25479.52055102399</c:v>
+                  <c:v>20995.005213221782</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>25645.206722829498</c:v>
+                  <c:v>21087.822247613014</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>25901.865467181127</c:v>
+                  <c:v>21189.830186663374</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>26288.813232456865</c:v>
+                  <c:v>21623.153333109873</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>27543.868291272003</c:v>
+                  <c:v>21873.215943785661</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>27939.031744300468</c:v>
+                  <c:v>22384.468041832224</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>28095.010690486753</c:v>
+                  <c:v>23078.296451455277</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>28579.173030934351</c:v>
+                  <c:v>23604.549476235323</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>29382.710729655377</c:v>
+                  <c:v>24301.867930657016</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>29975.840768951766</c:v>
+                  <c:v>24153.544811818341</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>30242.262137621579</c:v>
+                  <c:v>24273.550594561533</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>31309.090514838932</c:v>
+                  <c:v>25067.603019632777</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>32065.2010510664</c:v>
+                  <c:v>25340.600723351807</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>32108.216681115435</c:v>
+                  <c:v>26258.095763968817</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>32527.728412909924</c:v>
+                  <c:v>26257.207350014494</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>33581.433300019286</c:v>
+                  <c:v>26767.730926468623</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>33997.645070392588</c:v>
+                  <c:v>27408.597725725696</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>34140.84752399526</c:v>
+                  <c:v>28260.609278421838</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>34590.735991715017</c:v>
+                  <c:v>28523.084637668082</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>35231.573860161778</c:v>
+                  <c:v>29686.23753557869</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>35010.4527309408</c:v>
+                  <c:v>30509.778021039503</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>35930.514487979439</c:v>
+                  <c:v>31753.274756506362</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>36490.692057701825</c:v>
+                  <c:v>31874.022463961632</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>36865.538150927743</c:v>
+                  <c:v>32029.155864067357</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>37210.164790055176</c:v>
+                  <c:v>32780.041590186345</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>36891.991184258171</c:v>
+                  <c:v>32301.866679513183</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>37620.901959567491</c:v>
+                  <c:v>33431.736807857073</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>37611.249779121121</c:v>
+                  <c:v>34789.704037847914</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>38111.767163207471</c:v>
+                  <c:v>34919.647055448957</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>39030.864560583286</c:v>
+                  <c:v>36260.508924590038</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>39690.076465610051</c:v>
+                  <c:v>36993.090737260245</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>39265.032376930896</c:v>
+                  <c:v>38139.484203846048</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>40833.951240866882</c:v>
+                  <c:v>38989.390816075589</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>41108.055124672341</c:v>
+                  <c:v>39405.857136658989</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>41823.095224444303</c:v>
+                  <c:v>41084.845999404999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>42801.710825911156</c:v>
+                  <c:v>41610.043271170412</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43559.697650935959</c:v>
+                  <c:v>42394.1707755811</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>44497.257911303699</c:v>
+                  <c:v>42349.379565318108</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>45692.499523996426</c:v>
+                  <c:v>41571.689235580918</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>47406.35361136368</c:v>
+                  <c:v>41912.409129187537</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>47880.095415485317</c:v>
+                  <c:v>42225.33042983483</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>49126.186471086665</c:v>
+                  <c:v>42726.247677266831</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>50298.040959323582</c:v>
+                  <c:v>44150.400221914744</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>51272.474541603675</c:v>
+                  <c:v>45266.837731713502</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>52505.671924925751</c:v>
+                  <c:v>46122.214857051251</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>53179.565745088796</c:v>
+                  <c:v>47285.393746915142</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>53206.878277553464</c:v>
+                  <c:v>48701.725132975087</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>54887.86326612431</c:v>
+                  <c:v>49585.853611231942</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>57111.033441764055</c:v>
+                  <c:v>51584.888499937915</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>57300.207380174128</c:v>
+                  <c:v>52890.788581253932</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>58869.528647537409</c:v>
+                  <c:v>53741.197465311088</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>59193.499989908065</c:v>
+                  <c:v>56160.614700589787</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>61637.562894322633</c:v>
+                  <c:v>56685.836436642894</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>64074.713758451529</c:v>
+                  <c:v>56573.467500664599</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>67144.17868879289</c:v>
+                  <c:v>57876.549676317598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12479,7 +12479,7 @@
   <dimension ref="B2:G125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:G4"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14678,19 +14678,19 @@
       </c>
       <c r="E4" s="4">
         <f ca="1">_xlfn.NORM.INV(RAND(),0,$B$6)</f>
-        <v>-3.7105717813472085E-2</v>
+        <v>2.8897347493096463E-2</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">((1+(B$3+E4))*F3)</f>
-        <v>5897.3656931191681</v>
+        <v>6293.3840849585786</v>
       </c>
       <c r="G4" s="2">
         <f ca="1">F4-F3</f>
-        <v>-102.6343068808319</v>
+        <v>293.38408495857857</v>
       </c>
       <c r="H4" s="5">
         <f ca="1">(F4/F3)-1</f>
-        <v>-1.7105717813472032E-2</v>
+        <v>4.8897347493096488E-2</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
@@ -14702,19 +14702,19 @@
       </c>
       <c r="E5" s="4">
         <f t="shared" ref="E5:E68" ca="1" si="0">_xlfn.NORM.INV(RAND(),0,$B$6)</f>
-        <v>-6.5373041994529627E-3</v>
+        <v>-2.9496204224826578E-3</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ref="F5:F68" ca="1" si="1">((1+(B$3+E5))*F4)</f>
-        <v>5976.760133470214</v>
+        <v>6400.6886724342294</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" ref="G5:G68" ca="1" si="2">F5-F4</f>
-        <v>79.394440351045887</v>
+        <v>107.30458747565081</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" ref="H5:H68" ca="1" si="3">(F5/F4)-1</f>
-        <v>1.3462695800547042E-2</v>
+        <v>1.7050379577517427E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -14726,19 +14726,19 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6913574856712092E-3</v>
+        <v>4.7812915143849171E-5</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6154.2182551991864</v>
+        <v>6529.0084814672709</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>177.4581217289724</v>
+        <v>128.31980903304157</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9691357485671199E-2</v>
+        <v>2.0047812915143792E-2</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -14748,19 +14748,19 @@
       </c>
       <c r="E7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.3614216993850177E-3</v>
+        <v>7.1521511332241243E-3</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6238.1530427517946</v>
+        <v>6706.2851065061732</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>83.934787552608213</v>
+        <v>177.27662503890224</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.363857830061499E-2</v>
+        <v>2.7152151133224223E-2</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -14773,25 +14773,25 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.2865637847087791E-3</v>
+        <v>1.2782565711523482E-2</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6323.6995566047972</v>
+        <v>6926.1343386904227</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>85.54651385300258</v>
+        <v>219.84923218424956</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3713436215291308E-2</v>
+        <v>3.2782565711523493E-2</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <f ca="1">(F125/F3)^(1/COUNT(F3:F125)) -1</f>
-        <v>1.9828850079468108E-2</v>
+        <v>1.8598088317125727E-2</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9">
@@ -14799,19 +14799,19 @@
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2687607101329966E-3</v>
+        <v>1.317709858306745E-2</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6464.5205088336043</v>
+        <v>7155.923380444724</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>140.82095222880707</v>
+        <v>229.78904175430125</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2268760710133062E-2</v>
+        <v>3.3177098583067499E-2</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -14820,19 +14820,19 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9217281476800692E-2</v>
+        <v>-1.231837409062363E-2</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6469.5804087794695</v>
+        <v>7210.8925068894605</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0598999458652543</v>
+        <v>54.969126444736503</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.8271852319922175E-4</v>
+        <v>7.6816259093763772E-3</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -14841,19 +14841,19 @@
       </c>
       <c r="E11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3173113966120394E-2</v>
+        <v>-3.7758805495187821E-2</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6513.7474969172272</v>
+        <v>7082.8356694129034</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44.167088137757673</v>
+        <v>-128.05683747655712</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8268860338795978E-3</v>
+        <v>-1.7758805495187824E-2</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -14862,19 +14862,19 @@
       </c>
       <c r="E12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1630648676323229E-2</v>
+        <v>-2.9640107019156426E-5</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6719.7815555584957</v>
+        <v>7224.2824467939208</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>206.03405864126853</v>
+        <v>141.44677738101745</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1630648676323148E-2</v>
+        <v>1.9970359892980794E-2</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -14883,19 +14883,19 @@
       </c>
       <c r="E13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7696302729124962E-2</v>
+        <v>7.3501345128561095E-3</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6735.2618979889121</v>
+        <v>7421.8675434726001</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.480342430416385</v>
+        <v>197.58509667867929</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3036972708749826E-3</v>
+        <v>2.7350134512856172E-2</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
@@ -14904,19 +14904,19 @@
       </c>
       <c r="E14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4439237136174796E-2</v>
+        <v>-4.0456410421000351E-2</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6967.2191796679954</v>
+        <v>7270.0427749130231</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>231.95728167908328</v>
+        <v>-151.82476855957702</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4439237136174805E-2</v>
+        <v>-2.0456410421000326E-2</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -14925,19 +14925,19 @@
       </c>
       <c r="E15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9136308577717612E-3</v>
+        <v>3.3505800771994752E-3</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7147.7651255950996</v>
+        <v>7439.8024908932939</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>180.54594592710419</v>
+        <v>169.75971598027081</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5913630857771874E-2</v>
+        <v>2.3350580077199368E-2</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -14946,19 +14946,19 @@
       </c>
       <c r="E16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3627527425877167E-2</v>
+        <v>1.0344166197793331E-3</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7193.3140628242254</v>
+        <v>7596.2943960556158</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45.548937229125841</v>
+        <v>156.49190516232193</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3724725741227672E-3</v>
+        <v>2.1034416619779339E-2</v>
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.2">
@@ -14967,19 +14967,19 @@
       </c>
       <c r="E17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2958340261394287E-2</v>
+        <v>-2.1711206306749685E-2</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7430.3937553138585</v>
+        <v>7583.2955691771576</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>237.07969248963309</v>
+        <v>-12.998826878458203</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3.2958340261394214E-2</v>
+        <v>-1.7112063067497019E-3</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.2">
@@ -14988,19 +14988,19 @@
       </c>
       <c r="E18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.128661697402919E-2</v>
+        <v>-5.7941895330313872E-3</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7662.8656387025812</v>
+        <v>7691.0224287478914</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>232.47188338872274</v>
+        <v>107.72685957073372</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1286616974029124E-2</v>
+        <v>1.4205810466968671E-2</v>
       </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.2">
@@ -15009,19 +15009,19 @@
       </c>
       <c r="E19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8736687796229813E-2</v>
+        <v>-3.2971133973323928E-2</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7959.6996725734607</v>
+        <v>7591.2611464327629</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>296.83403387087947</v>
+        <v>-99.761282315128483</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8736687796229852E-2</v>
+        <v>-1.2971133973323945E-2</v>
       </c>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.2">
@@ -15030,19 +15030,19 @@
       </c>
       <c r="E20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6052144747409634E-3</v>
+        <v>3.6057941373376246E-3</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8147.5900904990822</v>
+        <v>7770.4588942982236</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>187.89041792562148</v>
+        <v>179.19774786546077</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3605214474740954E-2</v>
+        <v>2.3605794137337544E-2</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.2">
@@ -15051,19 +15051,19 @@
       </c>
       <c r="E21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7391892901892411E-2</v>
+        <v>5.5776508655427037E-4</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8615.195708381525</v>
+        <v>7930.2021628619332</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>467.60561788244286</v>
+        <v>159.74326856370953</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7391892901892394E-2</v>
+        <v>2.0557765086554269E-2</v>
       </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.2">
@@ -15072,19 +15072,19 @@
       </c>
       <c r="E22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0840321907145893E-2</v>
+        <v>-8.5855359965284937E-4</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8880.8911173210727</v>
+        <v>8081.9977025062726</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>265.69540893954763</v>
+        <v>151.79553964433944</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0840321907145807E-2</v>
+        <v>1.9141446400347206E-2</v>
       </c>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.2">
@@ -15093,19 +15093,19 @@
       </c>
       <c r="E23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2360137504839557E-3</v>
+        <v>-1.4251356209021643E-2</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9140.532972143621</v>
+        <v>8128.4582284174867</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>259.64185482254834</v>
+        <v>46.460525911214063</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9236013750483902E-2</v>
+        <v>5.7486437909783916E-3</v>
       </c>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.2">
@@ -15114,19 +15114,19 @@
       </c>
       <c r="E24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0115215863668859E-2</v>
+        <v>-4.5080601966106882E-3</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9415.8020957087083</v>
+        <v>8254.3838139864947</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>275.26912356508728</v>
+        <v>125.92558556900804</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0115215863668832E-2</v>
+        <v>1.5491939803389254E-2</v>
       </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.2">
@@ -15135,19 +15135,19 @@
       </c>
       <c r="E25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5104499699522272E-2</v>
+        <v>-1.4978290293896935E-2</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9840.4971385053632</v>
+        <v>8295.834933303091</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>424.69504279665489</v>
+        <v>41.451119316596305</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5104499699522238E-2</v>
+        <v>5.0217097061031613E-3</v>
       </c>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.2">
@@ -15156,19 +15156,19 @@
       </c>
       <c r="E26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5439422454776737E-2</v>
+        <v>2.1097596275392209E-2</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10287.643645146929</v>
+        <v>8636.7738081592761</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>447.14650664156579</v>
+        <v>340.93887485618507</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5439422454776723E-2</v>
+        <v>4.1097596275392112E-2</v>
       </c>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.2">
@@ -15177,19 +15177,19 @@
       </c>
       <c r="E27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2262497638529114E-2</v>
+        <v>-1.1471469045895789E-2</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10264.367875693755</v>
+        <v>8710.4328009257588</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-23.27576945317378</v>
+        <v>73.658992766482697</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.2624976385291484E-3</v>
+        <v>8.5285309541041077E-3</v>
       </c>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.2">
@@ -15198,19 +15198,19 @@
       </c>
       <c r="E28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.190003545008248E-3</v>
+        <v>-7.7137839864418935E-3</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10481.869867366975</v>
+        <v>8817.4510598895158</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>217.50199167321989</v>
+        <v>107.01825896375703</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1190003545008329E-2</v>
+        <v>1.2286216013558171E-2</v>
       </c>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.2">
@@ -15219,19 +15219,19 @@
       </c>
       <c r="E29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.951468431261965E-3</v>
+        <v>1.2858634926581692E-2</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10722.444172728445</v>
+        <v>9107.1804652494247</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>240.57430536146967</v>
+        <v>289.72940535990892</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2951468431261945E-2</v>
+        <v>3.2858634926581587E-2</v>
       </c>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.2">
@@ -15240,19 +15240,19 @@
       </c>
       <c r="E30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.5847445057650591E-3</v>
+        <v>-8.5735735032348142E-3</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10887.733389173723</v>
+        <v>9211.2429934283737</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>165.28921644527873</v>
+        <v>104.06252817894892</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5415255494234836E-2</v>
+        <v>1.1426426496765174E-2</v>
       </c>
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.2">
@@ -15261,19 +15261,19 @@
       </c>
       <c r="E31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.442881146431645E-2</v>
+        <v>-8.5946286506630963E-3</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11480.339777086805</v>
+        <v>9316.3006403574018</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>592.60638791308156</v>
+        <v>105.05764692902812</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4428811464316551E-2</v>
+        <v>1.1405371349336946E-2</v>
       </c>
     </row>
     <row r="32" spans="4:8" x14ac:dyDescent="0.2">
@@ -15282,19 +15282,19 @@
       </c>
       <c r="E32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7164845274322403E-2</v>
+        <v>-2.0906086641897443E-3</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11907.004828598883</v>
+        <v>9483.1499143276214</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>426.66505151207821</v>
+        <v>166.84927397021966</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7164845274322289E-2</v>
+        <v>1.7909391335810154E-2</v>
       </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.2">
@@ -15303,19 +15303,19 @@
       </c>
       <c r="E33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6983768202301129E-3</v>
+        <v>1.0464649513305608E-2</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12260.623544798913</v>
+        <v>9772.0507527497466</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>353.61871620002967</v>
+        <v>288.90083842212516</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9698376820230132E-2</v>
+        <v>3.0464649513305631E-2</v>
       </c>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.2">
@@ -15324,19 +15324,19 @@
       </c>
       <c r="E34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0880379629386868E-2</v>
+        <v>-1.4520571588779879E-3</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12372.435777034481</v>
+        <v>9953.3021915522913</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>111.81223223556844</v>
+        <v>181.25143880254473</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1196203706132017E-3</v>
+        <v>1.8547942841121934E-2</v>
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.2">
@@ -15345,19 +15345,19 @@
       </c>
       <c r="E35" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.6288548371164205E-3</v>
+        <v>1.7035292698313963E-2</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12525.49697605063</v>
+        <v>10321.925651531201</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>153.06119901614875</v>
+        <v>368.62345997890952</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2371145162883623E-2</v>
+        <v>3.703529269831396E-2</v>
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.2">
@@ -15366,19 +15366,19 @@
       </c>
       <c r="E36" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5560159805549654E-2</v>
+        <v>2.1163194867568785E-3</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12970.90565016292</v>
+        <v>10550.208656959016</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>445.4086741122901</v>
+        <v>228.28300542781471</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5560159805549718E-2</v>
+        <v>2.2116319486756852E-2</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.2">
@@ -15387,19 +15387,19 @@
       </c>
       <c r="E37" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4206358637414339E-2</v>
+        <v>-1.6170720382681608E-2</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>13414.593100684458</v>
+        <v>10590.608355927567</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>443.68745052153827</v>
+        <v>40.399698968551093</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4206358637414391E-2</v>
+        <v>3.8292796173184929E-3</v>
       </c>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.2">
@@ -15408,19 +15408,19 @@
       </c>
       <c r="E38" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0271281549308259E-2</v>
+        <v>-1.7683777421398799E-2</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>13820.670025304686</v>
+        <v>10615.138562122689</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>406.07692462022715</v>
+        <v>24.530206195122446</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0271281549308249E-2</v>
+        <v>2.3162225786013124E-3</v>
       </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.2">
@@ -15429,19 +15429,19 @@
       </c>
       <c r="E39" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2612982685731538E-2</v>
+        <v>3.3140264031883537E-3</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>14409.609997798203</v>
+        <v>10862.62018283352</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>588.93997249351742</v>
+        <v>247.48162071083061</v>
       </c>
       <c r="H39" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2612982685731549E-2</v>
+        <v>2.3314026403188359E-2</v>
       </c>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.2">
@@ -15450,19 +15450,19 @@
       </c>
       <c r="E40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9966367180360512E-2</v>
+        <v>-1.4425939797129243E-2</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15129.605861873983</v>
+        <v>10923.169081693552</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>719.99586407577954</v>
+        <v>60.548898860031841</v>
       </c>
       <c r="H40" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9966367180360516E-2</v>
+        <v>5.5740602028706565E-3</v>
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.2">
@@ -15471,19 +15471,19 @@
       </c>
       <c r="E41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6695945800156924E-2</v>
+        <v>-1.2884982422880149E-2</v>
       </c>
       <c r="F41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15684.801058559047</v>
+        <v>11000.887621707652</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>555.19519668506473</v>
+        <v>77.718540014100654</v>
       </c>
       <c r="H41" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6695945800157004E-2</v>
+        <v>7.1150175771197421E-3</v>
       </c>
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.2">
@@ -15492,19 +15492,19 @@
       </c>
       <c r="E42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7684047289096649E-3</v>
+        <v>1.406250354828267E-2</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>16151.712564562666</v>
+        <v>11375.605395356328</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>466.91150600361834</v>
+        <v>374.71777364867557</v>
       </c>
       <c r="H42" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9768404728909736E-2</v>
+        <v>3.4062503548282663E-2</v>
       </c>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.2">
@@ -15513,19 +15513,19 @@
       </c>
       <c r="E43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6543362736809872E-2</v>
+        <v>3.3408285630448863E-2</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>16207.543176077668</v>
+        <v>11983.156977530793</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>55.830611515002602</v>
+        <v>607.55158217446478</v>
       </c>
       <c r="H43" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3.456637263190121E-3</v>
+        <v>5.3408285630448749E-2</v>
       </c>
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.2">
@@ -15534,19 +15534,19 @@
       </c>
       <c r="E44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5841348470613308E-4</v>
+        <v>5.6007834783000695E-3</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>16543.986058897914</v>
+        <v>12289.935184699039</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>336.44288282024536</v>
+        <v>306.77820716824681</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0758413484706084E-2</v>
+        <v>2.5600783478300082E-2</v>
       </c>
     </row>
     <row r="45" spans="4:8" x14ac:dyDescent="0.2">
@@ -15555,19 +15555,19 @@
       </c>
       <c r="E45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8049407150111437E-2</v>
+        <v>-7.7433708044517668E-3</v>
       </c>
       <c r="F45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>16576.256639813058</v>
+        <v>12440.568363095215</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>32.270580915144819</v>
+        <v>150.63317839617594</v>
       </c>
       <c r="H45" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9505928498886327E-3</v>
+        <v>1.2256629195548152E-2</v>
       </c>
     </row>
     <row r="46" spans="4:8" x14ac:dyDescent="0.2">
@@ -15576,19 +15576,19 @@
       </c>
       <c r="E46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1555582183123085E-3</v>
+        <v>-1.9818343483431985E-3</v>
       </c>
       <c r="F46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>17009.817885397377</v>
+        <v>12664.724584662225</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>433.56124558431839</v>
+        <v>224.1562215670092</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6155558218312391E-2</v>
+        <v>1.8018165651656703E-2</v>
       </c>
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.2">
@@ -15597,19 +15597,19 @@
       </c>
       <c r="E47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8316878892980297E-3</v>
+        <v>7.7216124349278647E-3</v>
       </c>
       <c r="F47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>17483.229827837557</v>
+        <v>13015.811171193332</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>473.4119424401797</v>
+        <v>351.08658653110797</v>
       </c>
       <c r="H47" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7831687889298129E-2</v>
+        <v>2.7721612434927767E-2</v>
       </c>
     </row>
     <row r="48" spans="4:8" x14ac:dyDescent="0.2">
@@ -15618,19 +15618,19 @@
       </c>
       <c r="E48" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8771253205025571E-3</v>
+        <v>5.3582107607523617E-3</v>
       </c>
       <c r="F48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>17782.592981172471</v>
+        <v>13345.868854094608</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>299.36315333491439</v>
+        <v>330.05768290127526</v>
       </c>
       <c r="H48" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7122874679497357E-2</v>
+        <v>2.5358210760752398E-2</v>
       </c>
     </row>
     <row r="49" spans="4:8" x14ac:dyDescent="0.2">
@@ -15639,19 +15639,19 @@
       </c>
       <c r="E49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1481004139979856E-2</v>
+        <v>-4.0709174033226185E-4</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18520.232794244061</v>
+        <v>13607.353238198441</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>737.63981307158974</v>
+        <v>261.48438410383278</v>
       </c>
       <c r="H49" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1481004139979794E-2</v>
+        <v>1.9592908259667752E-2</v>
       </c>
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.2">
@@ -15660,19 +15660,19 @@
       </c>
       <c r="E50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0631744297062127E-2</v>
+        <v>1.3698977822343408E-3</v>
       </c>
       <c r="F50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18693.735070738476</v>
+        <v>13898.140985985496</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>173.50227649441513</v>
+        <v>290.7877477870552</v>
       </c>
       <c r="H50" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>9.3682557029379776E-3</v>
+        <v>2.1369897782234304E-2</v>
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.2">
@@ -15681,19 +15681,19 @@
       </c>
       <c r="E51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4148306666050629E-2</v>
+        <v>-2.0263402345356504E-2</v>
       </c>
       <c r="F51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18616.187724931147</v>
+        <v>13894.480183053693</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-77.547345807328384</v>
+        <v>-3.6608029318031186</v>
       </c>
       <c r="H51" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.1483066660505941E-3</v>
+        <v>-2.6340234535648932E-4</v>
       </c>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.2">
@@ -15702,19 +15702,19 @@
       </c>
       <c r="E52" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2888982604880124E-2</v>
+        <v>2.9185375631899269E-2</v>
       </c>
       <c r="F52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18562.405882424639</v>
+        <v>14577.885410067167</v>
       </c>
       <c r="G52" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-53.781842506508838</v>
+        <v>683.40522701347436</v>
       </c>
       <c r="H52" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.8889826048801304E-3</v>
+        <v>4.9185375631899175E-2</v>
       </c>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.2">
@@ -15723,19 +15723,19 @@
       </c>
       <c r="E53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2834128546631697E-2</v>
+        <v>1.1726800713184465E-2</v>
       </c>
       <c r="F53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18509.797638019096</v>
+        <v>15040.395075292008</v>
       </c>
       <c r="G53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-52.608244405542791</v>
+        <v>462.50966522484123</v>
       </c>
       <c r="H53" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.8341285466316757E-3</v>
+        <v>3.1726800713184566E-2</v>
       </c>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.2">
@@ -15744,19 +15744,19 @@
       </c>
       <c r="E54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.403119445425563E-4</v>
+        <v>2.660951449942453E-3</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18873.694485552194</v>
+        <v>15381.224737881155</v>
       </c>
       <c r="G54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>363.89684753309848</v>
+        <v>340.82966258914712</v>
       </c>
       <c r="H54" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9659688055457369E-2</v>
+        <v>2.2660951449942512E-2</v>
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.2">
@@ -15765,19 +15765,19 @@
       </c>
       <c r="E55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0081920297876071E-2</v>
+        <v>-1.9873582807623091E-2</v>
       </c>
       <c r="F55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18872.148346877915</v>
+        <v>15383.169189127837</v>
       </c>
       <c r="G55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.5461386742790637</v>
+        <v>1.9444512466816377</v>
       </c>
       <c r="H55" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>-8.1920297876125758E-5</v>
+        <v>1.2641719237693749E-4</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.2">
@@ -15786,19 +15786,19 @@
       </c>
       <c r="E56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5124069278593411E-2</v>
+        <v>1.3013571314232772E-2</v>
       </c>
       <c r="F56" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18964.167634781399</v>
+        <v>15891.022542192017</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>92.019287903483928</v>
+        <v>507.85335306417983</v>
       </c>
       <c r="H56" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8759307214065739E-3</v>
+        <v>3.301357131423277E-2</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.2">
@@ -15807,19 +15807,19 @@
       </c>
       <c r="E57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4405830136412851E-2</v>
+        <v>-1.9177006602361244E-2</v>
       </c>
       <c r="F57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19616.64556510215</v>
+        <v>15904.100748825969</v>
       </c>
       <c r="G57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>652.4779303207506</v>
+        <v>13.078206633952504</v>
       </c>
       <c r="H57" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4405830136412963E-2</v>
+        <v>8.2299339763869384E-4</v>
       </c>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.2">
@@ -15828,19 +15828,19 @@
       </c>
       <c r="E58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6017144507859737E-2</v>
+        <v>2.3063130934947253E-2</v>
       </c>
       <c r="F58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19694.775829628485</v>
+        <v>16588.981121775254</v>
       </c>
       <c r="G58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>78.13026452633494</v>
+        <v>684.88037294928472</v>
       </c>
       <c r="H58" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9828554921401693E-3</v>
+        <v>4.306313093494718E-2</v>
       </c>
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.2">
@@ -15849,19 +15849,19 @@
       </c>
       <c r="E59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.8315501361508281E-3</v>
+        <v>3.1166580802108536E-3</v>
       </c>
       <c r="F59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19895.041170231812</v>
+        <v>16972.462926266406</v>
       </c>
       <c r="G59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>200.26534060332779</v>
+        <v>383.48180449115171</v>
       </c>
       <c r="H59" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0168449863849238E-2</v>
+        <v>2.3116658080210906E-2</v>
       </c>
     </row>
     <row r="60" spans="4:8" x14ac:dyDescent="0.2">
@@ -15870,19 +15870,19 @@
       </c>
       <c r="E60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1814057420936904E-3</v>
+        <v>7.6726612923148961E-3</v>
       </c>
       <c r="F60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20435.816356535539</v>
+        <v>17442.136144121345</v>
       </c>
       <c r="G60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>540.77518630372651</v>
+        <v>469.67321785493914</v>
       </c>
       <c r="H60" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7181405742093601E-2</v>
+        <v>2.7672661292314826E-2</v>
       </c>
     </row>
     <row r="61" spans="4:8" x14ac:dyDescent="0.2">
@@ -15891,19 +15891,19 @@
       </c>
       <c r="E61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9026424427271765E-3</v>
+        <v>-2.312105797233838E-2</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20764.778999401457</v>
+        <v>17387.698226054123</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>328.96264286591759</v>
+        <v>-54.437918067222199</v>
       </c>
       <c r="H61" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6097357557272929E-2</v>
+        <v>-3.1210579723384146E-3</v>
       </c>
     </row>
     <row r="62" spans="4:8" x14ac:dyDescent="0.2">
@@ -15912,19 +15912,19 @@
       </c>
       <c r="E62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6323468714849171E-3</v>
+        <v>-7.2256088247057253E-3</v>
       </c>
       <c r="F62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>21255.499459425038</v>
+        <v>17609.815484831706</v>
       </c>
       <c r="G62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>490.72046002358184</v>
+        <v>222.11725877758363</v>
       </c>
       <c r="H62" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3632346871484966E-2</v>
+        <v>1.277439117529422E-2</v>
       </c>
     </row>
     <row r="63" spans="4:8" x14ac:dyDescent="0.2">
@@ -15933,19 +15933,19 @@
       </c>
       <c r="E63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1584968885894045E-2</v>
+        <v>-2.4103127004517933E-3</v>
       </c>
       <c r="F63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>21926.853748505117</v>
+        <v>17919.566632612637</v>
       </c>
       <c r="G63" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>671.35428908007816</v>
+        <v>309.75114778093121</v>
       </c>
       <c r="H63" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1584968885894016E-2</v>
+        <v>1.758968729954824E-2</v>
       </c>
     </row>
     <row r="64" spans="4:8" x14ac:dyDescent="0.2">
@@ -15954,19 +15954,19 @@
       </c>
       <c r="E64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6620696163208693E-3</v>
+        <v>-9.8666964380151271E-3</v>
       </c>
       <c r="F64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>22423.761634620627</v>
+        <v>18101.151041000117</v>
       </c>
       <c r="G64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>496.90788611551034</v>
+        <v>181.58440838747993</v>
       </c>
       <c r="H64" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2.266206961632089E-2</v>
+        <v>1.013330356198483E-2</v>
       </c>
     </row>
     <row r="65" spans="4:8" x14ac:dyDescent="0.2">
@@ -15975,19 +15975,19 @@
       </c>
       <c r="E65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8329110396798679E-3</v>
+        <v>-4.2563634638873044E-3</v>
       </c>
       <c r="F65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>22935.761389198906</v>
+        <v>18386.128983874903</v>
       </c>
       <c r="G65" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>511.99975457827895</v>
+        <v>284.97794287478609</v>
       </c>
       <c r="H65" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2832911039679882E-2</v>
+        <v>1.5743636536112771E-2</v>
       </c>
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.2">
@@ -15996,19 +15996,19 @@
       </c>
       <c r="E66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7363207203029841E-3</v>
+        <v>-1.2547854390905418E-2</v>
       </c>
       <c r="F66" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23354.652779246895</v>
+        <v>18523.145094250332</v>
       </c>
       <c r="G66" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>418.89139004798926</v>
+        <v>137.01611037542898</v>
       </c>
       <c r="H66" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8263679279697076E-2</v>
+        <v>7.4521456090945737E-3</v>
       </c>
     </row>
     <row r="67" spans="4:8" x14ac:dyDescent="0.2">
@@ -16017,19 +16017,19 @@
       </c>
       <c r="E67" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.3743842680277722E-3</v>
+        <v>3.297271238145507E-2</v>
       </c>
       <c r="F67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23626.164998012056</v>
+        <v>19504.366331728019</v>
       </c>
       <c r="G67" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>271.51221876516138</v>
+        <v>981.22123747768637</v>
       </c>
       <c r="H67" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1625615731972294E-2</v>
+        <v>5.2972712381455178E-2</v>
       </c>
     </row>
     <row r="68" spans="4:8" x14ac:dyDescent="0.2">
@@ -16038,19 +16038,19 @@
       </c>
       <c r="E68" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0484171203190612E-2</v>
+        <v>-9.2964457264756804E-3</v>
       </c>
       <c r="F68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23850.987539258309</v>
+        <v>19713.13237533037</v>
       </c>
       <c r="G68" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>224.82254124625251</v>
+        <v>208.76604360235069</v>
       </c>
       <c r="H68" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>9.5158287968093447E-3</v>
+        <v>1.0703554273524318E-2</v>
       </c>
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.2">
@@ -16059,19 +16059,19 @@
       </c>
       <c r="E69" s="4">
         <f t="shared" ref="E69:E125" ca="1" si="4">_xlfn.NORM.INV(RAND(),0,$B$6)</f>
-        <v>1.6537002655401725E-2</v>
+        <v>9.8429817628771163E-3</v>
       </c>
       <c r="F69" s="2">
         <f t="shared" ref="F69:F125" ca="1" si="5">((1+(B$3+E69))*F68)</f>
-        <v>24722.431134314142</v>
+        <v>20301.431025296537</v>
       </c>
       <c r="G69" s="2">
         <f t="shared" ref="G69:G125" ca="1" si="6">F69-F68</f>
-        <v>871.4435950558327</v>
+        <v>588.29864996616743</v>
       </c>
       <c r="H69" s="5">
         <f t="shared" ref="H69:H125" ca="1" si="7">(F69/F68)-1</f>
-        <v>3.6537002655401718E-2</v>
+        <v>2.9842981762877141E-2</v>
       </c>
     </row>
     <row r="70" spans="4:8" x14ac:dyDescent="0.2">
@@ -16080,19 +16080,19 @@
       </c>
       <c r="E70" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.3379776425121487E-2</v>
+        <v>-1.0230216836147513E-2</v>
       </c>
       <c r="F70" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>24391.650533051557</v>
+        <v>20499.771604329595</v>
       </c>
       <c r="G70" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>-330.78060126258424</v>
+        <v>198.34057903305802</v>
       </c>
       <c r="H70" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.3379776425121448E-2</v>
+        <v>9.7697831638525745E-3</v>
       </c>
     </row>
     <row r="71" spans="4:8" x14ac:dyDescent="0.2">
@@ -16101,19 +16101,19 @@
       </c>
       <c r="E71" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2.4600098566447251E-2</v>
+        <v>4.1580061695707434E-3</v>
       </c>
       <c r="F71" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>25479.52055102399</v>
+        <v>20995.005213221782</v>
       </c>
       <c r="G71" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1087.8700179724328</v>
+        <v>495.23360889218748</v>
       </c>
       <c r="H71" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>4.4600098566447199E-2</v>
+        <v>2.4158006169570756E-2</v>
       </c>
     </row>
     <row r="72" spans="4:8" x14ac:dyDescent="0.2">
@@ -16122,19 +16122,19 @@
       </c>
       <c r="E72" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.3497280630782963E-2</v>
+        <v>-1.557908971926425E-2</v>
       </c>
       <c r="F72" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>25645.206722829498</v>
+        <v>21087.822247613014</v>
       </c>
       <c r="G72" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>165.68617180550791</v>
+        <v>92.817034391231573</v>
       </c>
       <c r="H72" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>6.5027193692170915E-3</v>
+        <v>4.4209102807357681E-3</v>
       </c>
     </row>
     <row r="73" spans="4:8" x14ac:dyDescent="0.2">
@@ -16143,19 +16143,19 @@
       </c>
       <c r="E73" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-9.9919409063234637E-3</v>
+        <v>-1.5162708702084951E-2</v>
       </c>
       <c r="F73" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>25901.865467181127</v>
+        <v>21189.830186663374</v>
       </c>
       <c r="G73" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>256.65874435162914</v>
+        <v>102.00793905035971</v>
       </c>
       <c r="H73" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0008059093676636E-2</v>
+        <v>4.8372912979151028E-3</v>
       </c>
     </row>
     <row r="74" spans="4:8" x14ac:dyDescent="0.2">
@@ -16164,19 +16164,19 @@
       </c>
       <c r="E74" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-5.0610078348981959E-3</v>
+        <v>4.4958088995097136E-4</v>
       </c>
       <c r="F74" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>26288.813232456865</v>
+        <v>21623.153333109873</v>
       </c>
       <c r="G74" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>386.94776527573777</v>
+        <v>433.32314644649887</v>
       </c>
       <c r="H74" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>1.493899216510175E-2</v>
+        <v>2.0449580889950969E-2</v>
       </c>
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.2">
@@ -16185,19 +16185,19 @@
       </c>
       <c r="E75" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7741031431027512E-2</v>
+        <v>-8.4354235099980534E-3</v>
       </c>
       <c r="F75" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>27543.868291272003</v>
+        <v>21873.215943785661</v>
       </c>
       <c r="G75" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1255.0550588151382</v>
+        <v>250.06261067578816</v>
       </c>
       <c r="H75" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>4.7741031431027592E-2</v>
+        <v>1.1564576490001865E-2</v>
       </c>
     </row>
     <row r="76" spans="4:8" x14ac:dyDescent="0.2">
@@ -16206,19 +16206,19 @@
       </c>
       <c r="E76" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-5.6533058882770508E-3</v>
+        <v>3.3734307456427053E-3</v>
       </c>
       <c r="F76" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>27939.031744300468</v>
+        <v>22384.468041832224</v>
       </c>
       <c r="G76" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>395.16345302846457</v>
+        <v>511.25209804656333</v>
       </c>
       <c r="H76" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>1.4346694111722957E-2</v>
+        <v>2.3373430745642798E-2</v>
       </c>
     </row>
     <row r="77" spans="4:8" x14ac:dyDescent="0.2">
@@ -16227,19 +16227,19 @@
       </c>
       <c r="E77" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.4417167079596165E-2</v>
+        <v>1.0995974902169858E-2</v>
       </c>
       <c r="F77" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>28095.010690486753</v>
+        <v>23078.296451455277</v>
       </c>
       <c r="G77" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>155.97894618628561</v>
+        <v>693.82840962305272</v>
       </c>
       <c r="H77" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>5.5828329204037352E-3</v>
+        <v>3.0995974902169765E-2</v>
       </c>
     </row>
     <row r="78" spans="4:8" x14ac:dyDescent="0.2">
@@ -16248,19 +16248,19 @@
       </c>
       <c r="E78" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.766963651252776E-3</v>
+        <v>2.8029406714228855E-3</v>
       </c>
       <c r="F78" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>28579.173030934351</v>
+        <v>23604.549476235323</v>
       </c>
       <c r="G78" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>484.16234044759767</v>
+        <v>526.25302478004596</v>
       </c>
       <c r="H78" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>1.7233036348747177E-2</v>
+        <v>2.2802940671422967E-2</v>
       </c>
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.2">
@@ -16269,19 +16269,19 @@
       </c>
       <c r="E79" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1161983886403125E-3</v>
+        <v>9.5416972530547057E-3</v>
       </c>
       <c r="F79" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>29382.710729655377</v>
+        <v>24301.867930657016</v>
       </c>
       <c r="G79" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>803.53769872102566</v>
+        <v>697.31845442169288</v>
       </c>
       <c r="H79" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>2.8116198388640212E-2</v>
+        <v>2.9541697253054666E-2</v>
       </c>
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.2">
@@ -16290,19 +16290,19 @@
       </c>
       <c r="E80" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8636213498686107E-4</v>
+        <v>-2.6103362888066885E-2</v>
       </c>
       <c r="F80" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>29975.840768951766</v>
+        <v>24153.544811818341</v>
       </c>
       <c r="G80" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>593.13003929638944</v>
+        <v>-148.32311883867442</v>
       </c>
       <c r="H80" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>2.0186362134986924E-2</v>
+        <v>-6.1033628880668989E-3</v>
       </c>
     </row>
     <row r="81" spans="4:8" x14ac:dyDescent="0.2">
@@ -16311,19 +16311,19 @@
       </c>
       <c r="E81" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.1112130241038456E-2</v>
+        <v>-1.5031545734667046E-2</v>
       </c>
       <c r="F81" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>30242.262137621579</v>
+        <v>24273.550594561533</v>
       </c>
       <c r="G81" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>266.42136866981309</v>
+        <v>120.00578274319196</v>
       </c>
       <c r="H81" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>8.8878697589616085E-3</v>
+        <v>4.9684542653329888E-3</v>
       </c>
     </row>
     <row r="82" spans="4:8" x14ac:dyDescent="0.2">
@@ -16332,19 +16332,19 @@
       </c>
       <c r="E82" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5276077310705346E-2</v>
+        <v>1.2712660720065917E-2</v>
       </c>
       <c r="F82" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>31309.090514838932</v>
+        <v>25067.603019632777</v>
       </c>
       <c r="G82" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1066.8283772173527</v>
+        <v>794.05242507124422</v>
       </c>
       <c r="H82" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5276077310705256E-2</v>
+        <v>3.2712660720065845E-2</v>
       </c>
     </row>
     <row r="83" spans="4:8" x14ac:dyDescent="0.2">
@@ -16353,19 +16353,19 @@
       </c>
       <c r="E83" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4.1498722509715419E-3</v>
+        <v>-9.1095409678691366E-3</v>
       </c>
       <c r="F83" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>32065.2010510664</v>
+        <v>25340.600723351807</v>
       </c>
       <c r="G83" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>756.1105362274684</v>
+        <v>272.99770371902923</v>
       </c>
       <c r="H83" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>2.4149872250971649E-2</v>
+        <v>1.0890459032130817E-2</v>
       </c>
     </row>
     <row r="84" spans="4:8" x14ac:dyDescent="0.2">
@@ -16374,19 +16374,19 @@
       </c>
       <c r="E84" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.8658494921627751E-2</v>
+        <v>1.6206522908966486E-2</v>
       </c>
       <c r="F84" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>32108.216681115435</v>
+        <v>26258.095763968817</v>
       </c>
       <c r="G84" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43.015630049034371</v>
+        <v>917.49504061701009</v>
       </c>
       <c r="H84" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3415050783722737E-3</v>
+        <v>3.6206522908966532E-2</v>
       </c>
     </row>
     <row r="85" spans="4:8" x14ac:dyDescent="0.2">
@@ -16395,19 +16395,19 @@
       </c>
       <c r="E85" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.9344431065452624E-3</v>
+        <v>-2.0033833906400098E-2</v>
       </c>
       <c r="F85" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>32527.728412909924</v>
+        <v>26257.207350014494</v>
       </c>
       <c r="G85" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>419.51173179448961</v>
+        <v>-0.88841395432245918</v>
       </c>
       <c r="H85" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3065556893454788E-2</v>
+        <v>-3.3833906400104752E-5</v>
       </c>
     </row>
     <row r="86" spans="4:8" x14ac:dyDescent="0.2">
@@ -16416,19 +16416,19 @@
       </c>
       <c r="E86" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2394050815154793E-2</v>
+        <v>-5.5682123202467528E-4</v>
       </c>
       <c r="F86" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>33581.433300019286</v>
+        <v>26767.730926468623</v>
       </c>
       <c r="G86" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1053.7048871093612</v>
+        <v>510.52357645412849</v>
       </c>
       <c r="H86" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>3.2394050815154785E-2</v>
+        <v>1.9443178767975411E-2</v>
       </c>
     </row>
     <row r="87" spans="4:8" x14ac:dyDescent="0.2">
@@ -16437,19 +16437,19 @@
       </c>
       <c r="E87" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-7.6058961910639624E-3</v>
+        <v>3.9417678329755363E-3</v>
       </c>
       <c r="F87" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>33997.645070392588</v>
+        <v>27408.597725725696</v>
       </c>
       <c r="G87" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>416.21177037330199</v>
+        <v>640.86679925707358</v>
       </c>
       <c r="H87" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>1.239410380893613E-2</v>
+        <v>2.3941767832975636E-2</v>
       </c>
     </row>
     <row r="88" spans="4:8" x14ac:dyDescent="0.2">
@@ -16458,19 +16458,19 @@
       </c>
       <c r="E88" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.5787871386204334E-2</v>
+        <v>1.1085557941420835E-2</v>
       </c>
       <c r="F88" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>34140.84752399526</v>
+        <v>28260.609278421838</v>
       </c>
       <c r="G88" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>143.2024536026729</v>
+        <v>852.01155269614173</v>
       </c>
       <c r="H88" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>4.2121286137957181E-3</v>
+        <v>3.1085557941420872E-2</v>
       </c>
     </row>
     <row r="89" spans="4:8" x14ac:dyDescent="0.2">
@@ -16479,19 +16479,19 @@
       </c>
       <c r="E89" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.8225747060450745E-3</v>
+        <v>-1.0712324824268708E-2</v>
       </c>
       <c r="F89" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>34590.735991715017</v>
+        <v>28523.084637668082</v>
       </c>
       <c r="G89" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>449.88846771975659</v>
+        <v>262.4753592462439</v>
       </c>
       <c r="H89" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3177425293954936E-2</v>
+        <v>9.2876751757313691E-3</v>
       </c>
     </row>
     <row r="90" spans="4:8" x14ac:dyDescent="0.2">
@@ -16500,19 +16500,19 @@
       </c>
       <c r="E90" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.4737139851477151E-3</v>
+        <v>2.0779351626455288E-2</v>
       </c>
       <c r="F90" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>35231.573860161778</v>
+        <v>29686.23753557869</v>
       </c>
       <c r="G90" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>640.83786844676069</v>
+        <v>1163.1528979106079</v>
       </c>
       <c r="H90" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>1.8526286014852289E-2</v>
+        <v>4.0779351626455185E-2</v>
       </c>
     </row>
     <row r="91" spans="4:8" x14ac:dyDescent="0.2">
@@ -16521,19 +16521,19 @@
       </c>
       <c r="E91" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.6276220588346024E-2</v>
+        <v>7.7414907993581129E-3</v>
       </c>
       <c r="F91" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>35010.4527309408</v>
+        <v>30509.778021039503</v>
       </c>
       <c r="G91" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>-221.12112922097731</v>
+        <v>823.54048546081322</v>
       </c>
       <c r="H91" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>-6.276220588345871E-3</v>
+        <v>2.774149079935806E-2</v>
       </c>
     </row>
     <row r="92" spans="4:8" x14ac:dyDescent="0.2">
@@ -16542,19 +16542,19 @@
       </c>
       <c r="E92" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.2796303752314115E-3</v>
+        <v>2.0757318345919963E-2</v>
       </c>
       <c r="F92" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>35930.514487979439</v>
+        <v>31753.274756506362</v>
       </c>
       <c r="G92" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>920.06175703863846</v>
+        <v>1243.4967354668588</v>
       </c>
       <c r="H92" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>2.6279630375231511E-2</v>
+        <v>4.0757318345920002E-2</v>
       </c>
     </row>
     <row r="93" spans="4:8" x14ac:dyDescent="0.2">
@@ -16563,19 +16563,19 @@
       </c>
       <c r="E93" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-4.4094197451640758E-3</v>
+        <v>-1.6197314816150579E-2</v>
       </c>
       <c r="F93" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>36490.692057701825</v>
+        <v>31874.022463961632</v>
       </c>
       <c r="G93" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>560.17756972238567</v>
+        <v>120.74770745526985</v>
       </c>
       <c r="H93" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>1.5590580254835951E-2</v>
+        <v>3.802685183849519E-3</v>
       </c>
     </row>
     <row r="94" spans="4:8" x14ac:dyDescent="0.2">
@@ -16584,19 +16584,19 @@
       </c>
       <c r="E94" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-9.7276244409621251E-3</v>
+        <v>-1.5132920537998366E-2</v>
       </c>
       <c r="F94" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>36865.538150927743</v>
+        <v>32029.155864067357</v>
       </c>
       <c r="G94" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>374.84609322591859</v>
+        <v>155.13340010572574</v>
       </c>
       <c r="H94" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0272375559037927E-2</v>
+        <v>4.8670794620016E-3</v>
       </c>
     </row>
     <row r="95" spans="4:8" x14ac:dyDescent="0.2">
@@ -16605,19 +16605,19 @@
       </c>
       <c r="E95" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.0651794157553653E-2</v>
+        <v>3.4438187914089717E-3</v>
       </c>
       <c r="F95" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>37210.164790055176</v>
+        <v>32780.041590186345</v>
       </c>
       <c r="G95" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>344.62663912743301</v>
+        <v>750.8857261189878</v>
       </c>
       <c r="H95" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>9.3482058424463332E-3</v>
+        <v>2.3443818791408999E-2</v>
       </c>
     </row>
     <row r="96" spans="4:8" x14ac:dyDescent="0.2">
@@ -16626,19 +16626,19 @@
       </c>
       <c r="E96" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.8550717460999766E-2</v>
+        <v>-3.458737962115082E-2</v>
       </c>
       <c r="F96" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>36891.991184258171</v>
+        <v>32301.866679513183</v>
       </c>
       <c r="G96" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>-318.17360579700471</v>
+        <v>-478.17491067316223</v>
       </c>
       <c r="H96" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>-8.5507174609997794E-3</v>
+        <v>-1.4587379621150864E-2</v>
       </c>
     </row>
     <row r="97" spans="4:8" x14ac:dyDescent="0.2">
@@ -16647,19 +16647,19 @@
       </c>
       <c r="E97" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.4203216170265402E-4</v>
+        <v>1.4978477855599795E-2</v>
       </c>
       <c r="F97" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>37620.901959567491</v>
+        <v>33431.736807857073</v>
       </c>
       <c r="G97" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>728.91077530931943</v>
+        <v>1129.8701283438895</v>
       </c>
       <c r="H97" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>1.9757967838297308E-2</v>
+        <v>3.497847785559971E-2</v>
       </c>
     </row>
     <row r="98" spans="4:8" x14ac:dyDescent="0.2">
@@ -16668,19 +16668,19 @@
       </c>
       <c r="E98" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.0256564301853793E-2</v>
+        <v>2.0619105067604358E-2</v>
       </c>
       <c r="F98" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>37611.249779121121</v>
+        <v>34789.704037847914</v>
       </c>
       <c r="G98" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.6521804463700391</v>
+        <v>1357.9672299908416</v>
       </c>
       <c r="H98" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>-2.5656430185383439E-4</v>
+        <v>4.0619105067604355E-2</v>
       </c>
     </row>
     <row r="99" spans="4:8" x14ac:dyDescent="0.2">
@@ -16689,19 +16689,19 @@
       </c>
       <c r="E99" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.6923490438173961E-3</v>
+        <v>-1.6264900171048317E-2</v>
       </c>
       <c r="F99" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>38111.767163207471</v>
+        <v>34919.647055448957</v>
       </c>
       <c r="G99" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>500.51738408634992</v>
+        <v>129.94301760104281</v>
       </c>
       <c r="H99" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3307650956182693E-2</v>
+        <v>3.7350998289515935E-3</v>
       </c>
     </row>
     <row r="100" spans="4:8" x14ac:dyDescent="0.2">
@@ -16710,19 +16710,19 @@
       </c>
       <c r="E100" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4.1158431053573046E-3</v>
+        <v>1.8398494320745092E-2</v>
       </c>
       <c r="F100" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>39030.864560583286</v>
+        <v>36260.508924590038</v>
       </c>
       <c r="G100" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>919.09739737581549</v>
+        <v>1340.8618691410811</v>
       </c>
       <c r="H100" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>2.4115843105357193E-2</v>
+        <v>3.8398494320745158E-2</v>
       </c>
     </row>
     <row r="101" spans="4:8" x14ac:dyDescent="0.2">
@@ -16731,19 +16731,19 @@
       </c>
       <c r="E101" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.1104969759625147E-3</v>
+        <v>2.03296489680704E-4</v>
       </c>
       <c r="F101" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>39690.076465610051</v>
+        <v>36993.090737260245</v>
       </c>
       <c r="G101" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>659.21190502676473</v>
+        <v>732.581812670207</v>
       </c>
       <c r="H101" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>1.6889503024037467E-2</v>
+        <v>2.0203296489680778E-2</v>
       </c>
     </row>
     <row r="102" spans="4:8" x14ac:dyDescent="0.2">
@@ -16752,19 +16752,19 @@
       </c>
       <c r="E102" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.070907709254319E-2</v>
+        <v>1.0989394066258268E-2</v>
       </c>
       <c r="F102" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>39265.032376930896</v>
+        <v>38139.484203846048</v>
       </c>
       <c r="G102" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>-425.04408867915481</v>
+        <v>1146.3934665858033</v>
       </c>
       <c r="H102" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.0709077092543207E-2</v>
+        <v>3.0989394066258225E-2</v>
       </c>
     </row>
     <row r="103" spans="4:8" x14ac:dyDescent="0.2">
@@ -16773,19 +16773,19 @@
       </c>
       <c r="E103" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9957151922731127E-2</v>
+        <v>2.2841663953031234E-3</v>
       </c>
       <c r="F103" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>40833.951240866882</v>
+        <v>38989.390816075589</v>
       </c>
       <c r="G103" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1568.9188639359854</v>
+        <v>849.90661222954077</v>
       </c>
       <c r="H103" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>3.9957151922731082E-2</v>
+        <v>2.2284166395303062E-2</v>
       </c>
     </row>
     <row r="104" spans="4:8" x14ac:dyDescent="0.2">
@@ -16794,19 +16794,19 @@
       </c>
       <c r="E104" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.3287353403823031E-2</v>
+        <v>-9.3184706950669282E-3</v>
       </c>
       <c r="F104" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>41108.055124672341</v>
+        <v>39405.857136658989</v>
       </c>
       <c r="G104" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>274.10388380545919</v>
+        <v>416.46632058340037</v>
       </c>
       <c r="H104" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>6.7126465961768744E-3</v>
+        <v>1.0681529304933157E-2</v>
       </c>
     </row>
     <row r="105" spans="4:8" x14ac:dyDescent="0.2">
@@ -16815,19 +16815,19 @@
       </c>
       <c r="E105" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.6058397167321701E-3</v>
+        <v>2.2607596554067917E-2</v>
       </c>
       <c r="F105" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>41823.095224444303</v>
+        <v>41084.845999404999</v>
       </c>
       <c r="G105" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>715.04009977196256</v>
+        <v>1678.9888627460095</v>
       </c>
       <c r="H105" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>1.7394160283267901E-2</v>
+        <v>4.2607596554067984E-2</v>
       </c>
     </row>
     <row r="106" spans="4:8" x14ac:dyDescent="0.2">
@@ -16836,19 +16836,19 @@
       </c>
       <c r="E106" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3.3989281810706132E-3</v>
+        <v>-7.216764259673181E-3</v>
       </c>
       <c r="F106" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>42801.710825911156</v>
+        <v>41610.043271170412</v>
       </c>
       <c r="G106" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>978.61560146685224</v>
+        <v>525.19727176541346</v>
       </c>
       <c r="H106" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>2.3398928181070699E-2</v>
+        <v>1.2783235740326804E-2</v>
       </c>
     </row>
     <row r="107" spans="4:8" x14ac:dyDescent="0.2">
@@ -16857,19 +16857,19 @@
       </c>
       <c r="E107" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.2907353374776304E-3</v>
+        <v>-1.155330714256389E-3</v>
       </c>
       <c r="F107" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>43559.697650935959</v>
+        <v>42394.1707755811</v>
       </c>
       <c r="G107" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>757.98682502480369</v>
+        <v>784.12750441068783</v>
       </c>
       <c r="H107" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>1.7709264662522317E-2</v>
+        <v>1.8844669285743576E-2</v>
       </c>
     </row>
     <row r="108" spans="4:8" x14ac:dyDescent="0.2">
@@ -16878,19 +16878,19 @@
       </c>
       <c r="E108" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5235713498482368E-3</v>
+        <v>-2.1056541723627482E-2</v>
       </c>
       <c r="F108" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>44497.257911303699</v>
+        <v>42349.379565318108</v>
       </c>
       <c r="G108" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>937.56026036773983</v>
+        <v>-44.791210262992536</v>
       </c>
       <c r="H108" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>2.1523571349848281E-2</v>
+        <v>-1.0565417236275687E-3</v>
       </c>
     </row>
     <row r="109" spans="4:8" x14ac:dyDescent="0.2">
@@ -16899,19 +16899,19 @@
       </c>
       <c r="E109" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.8610172580792755E-3</v>
+        <v>-3.8363677053112749E-2</v>
       </c>
       <c r="F109" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>45692.499523996426</v>
+        <v>41571.689235580918</v>
       </c>
       <c r="G109" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1195.2416126927274</v>
+        <v>-777.69032973719004</v>
       </c>
       <c r="H109" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>2.6861017258079212E-2</v>
+        <v>-1.8363677053112704E-2</v>
       </c>
     </row>
     <row r="110" spans="4:8" x14ac:dyDescent="0.2">
@@ -16920,19 +16920,19 @@
       </c>
       <c r="E110" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1.750843366463645E-2</v>
+        <v>-1.1804040204481097E-2</v>
       </c>
       <c r="F110" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>47406.35361136368</v>
+        <v>41912.409129187537</v>
       </c>
       <c r="G110" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1713.8540873672537</v>
+        <v>340.71989360661973</v>
       </c>
       <c r="H110" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>3.750843366463652E-2</v>
+        <v>8.1959597955187924E-3</v>
       </c>
     </row>
     <row r="111" spans="4:8" x14ac:dyDescent="0.2">
@@ -16941,19 +16941,19 @@
       </c>
       <c r="E111" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.0006786685064139E-2</v>
+        <v>-1.2533922359777244E-2</v>
       </c>
       <c r="F111" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>47880.095415485317</v>
+        <v>42225.33042983483</v>
       </c>
       <c r="G111" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>473.74180412163696</v>
+        <v>312.92130064729281</v>
       </c>
       <c r="H111" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>9.993213314935856E-3</v>
+        <v>7.4660776402226681E-3</v>
       </c>
     </row>
     <row r="112" spans="4:8" x14ac:dyDescent="0.2">
@@ -16962,19 +16962,19 @@
       </c>
       <c r="E112" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.0252416957033731E-3</v>
+        <v>-8.1370437523425824E-3</v>
       </c>
       <c r="F112" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>49126.186471086665</v>
+        <v>42726.247677266831</v>
       </c>
       <c r="G112" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1246.0910556013478</v>
+        <v>500.91724743200029</v>
       </c>
       <c r="H112" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>2.6025241695703416E-2</v>
+        <v>1.1862956247657319E-2</v>
       </c>
     </row>
     <row r="113" spans="4:8" x14ac:dyDescent="0.2">
@@ -16983,19 +16983,19 @@
       </c>
       <c r="E113" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3.8539681667863739E-3</v>
+        <v>1.333202942147565E-2</v>
       </c>
       <c r="F113" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>50298.040959323582</v>
+        <v>44150.400221914744</v>
       </c>
       <c r="G113" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1171.8544882369169</v>
+        <v>1424.1525446479136</v>
       </c>
       <c r="H113" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>2.3853968166786421E-2</v>
+        <v>3.3332029421475617E-2</v>
       </c>
     </row>
     <row r="114" spans="4:8" x14ac:dyDescent="0.2">
@@ -17004,19 +17004,19 @@
       </c>
       <c r="E114" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.2680844631447525E-4</v>
+        <v>5.2871435861774575E-3</v>
       </c>
       <c r="F114" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>51272.474541603675</v>
+        <v>45266.837731713502</v>
       </c>
       <c r="G114" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>974.43358228009311</v>
+        <v>1116.4375097987577</v>
       </c>
       <c r="H114" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>1.9373191553685443E-2</v>
+        <v>2.5287143586177452E-2</v>
       </c>
     </row>
     <row r="115" spans="4:8" x14ac:dyDescent="0.2">
@@ -17025,19 +17025,19 @@
       </c>
       <c r="E115" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4.051840570351864E-3</v>
+        <v>-1.1036695249759137E-3</v>
       </c>
       <c r="F115" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>52505.671924925751</v>
+        <v>46122.214857051251</v>
       </c>
       <c r="G115" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1233.1973833220763</v>
+        <v>855.37712533774902</v>
       </c>
       <c r="H115" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>2.4051840570351812E-2</v>
+        <v>1.8896330475024037E-2</v>
       </c>
     </row>
     <row r="116" spans="4:8" x14ac:dyDescent="0.2">
@@ -17046,19 +17046,19 @@
       </c>
       <c r="E116" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-7.1653138516806457E-3</v>
+        <v>5.2194933280847403E-3</v>
       </c>
       <c r="F116" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>53179.565745088796</v>
+        <v>47285.393746915142</v>
       </c>
       <c r="G116" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>673.89382016304444</v>
+        <v>1163.1788898638915</v>
       </c>
       <c r="H116" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2834686148319285E-2</v>
+        <v>2.5219493328084708E-2</v>
       </c>
     </row>
     <row r="117" spans="4:8" x14ac:dyDescent="0.2">
@@ -17067,19 +17067,19 @@
       </c>
       <c r="E117" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.9486409261113734E-2</v>
+        <v>9.9528305429907975E-3</v>
       </c>
       <c r="F117" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>53206.878277553464</v>
+        <v>48701.725132975087</v>
       </c>
       <c r="G117" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>27.312532464668038</v>
+        <v>1416.3313860599446</v>
       </c>
       <c r="H117" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1359073888623819E-4</v>
+        <v>2.9952830542990805E-2</v>
       </c>
     </row>
     <row r="118" spans="4:8" x14ac:dyDescent="0.2">
@@ -17088,19 +17088,19 @@
       </c>
       <c r="E118" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1593377453982529E-2</v>
+        <v>-1.8460542035660418E-3</v>
       </c>
       <c r="F118" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>54887.86326612431</v>
+        <v>49585.853611231942</v>
       </c>
       <c r="G118" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1680.9849885708463</v>
+        <v>884.12847825685458</v>
       </c>
       <c r="H118" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>3.1593377453982496E-2</v>
+        <v>1.8153945796433923E-2</v>
       </c>
     </row>
     <row r="119" spans="4:8" x14ac:dyDescent="0.2">
@@ -17109,19 +17109,19 @@
       </c>
       <c r="E119" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2.0503857198096536E-2</v>
+        <v>2.031462086705247E-2</v>
       </c>
       <c r="F119" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>57111.033441764055</v>
+        <v>51584.888499937915</v>
       </c>
       <c r="G119" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2223.1701756397451</v>
+        <v>1999.0348887059736</v>
       </c>
       <c r="H119" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>4.050385719809646E-2</v>
+        <v>4.0314620867052398E-2</v>
       </c>
     </row>
     <row r="120" spans="4:8" x14ac:dyDescent="0.2">
@@ -17130,19 +17130,19 @@
       </c>
       <c r="E120" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.6687611359668845E-2</v>
+        <v>5.3155549869529448E-3</v>
       </c>
       <c r="F120" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>57300.207380174128</v>
+        <v>52890.788581253932</v>
       </c>
       <c r="G120" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>189.17393841007288</v>
+        <v>1305.9000813160164</v>
       </c>
       <c r="H120" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>3.3123886403312319E-3</v>
+        <v>2.5315554986953037E-2</v>
       </c>
     </row>
     <row r="121" spans="4:8" x14ac:dyDescent="0.2">
@@ -17151,19 +17151,19 @@
       </c>
       <c r="E121" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.3877065915518023E-3</v>
+        <v>-3.9214179468941577E-3</v>
       </c>
       <c r="F121" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>58869.528647537409</v>
+        <v>53741.197465311088</v>
       </c>
       <c r="G121" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1569.3212673632806</v>
+        <v>850.40888405715668</v>
       </c>
       <c r="H121" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>2.7387706591551764E-2</v>
+        <v>1.607858205310575E-2</v>
       </c>
     </row>
     <row r="122" spans="4:8" x14ac:dyDescent="0.2">
@@ -17172,19 +17172,19 @@
       </c>
       <c r="E122" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.4496790617938618E-2</v>
+        <v>2.5019786483924E-2</v>
       </c>
       <c r="F122" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>59193.499989908065</v>
+        <v>56160.614700589787</v>
       </c>
       <c r="G122" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>323.9713423706562</v>
+        <v>2419.4172352786991</v>
       </c>
       <c r="H122" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>5.5032093820612804E-3</v>
+        <v>4.5019786483923907E-2</v>
       </c>
     </row>
     <row r="123" spans="4:8" x14ac:dyDescent="0.2">
@@ -17193,19 +17193,19 @@
       </c>
       <c r="E123" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2.1289379827704877E-2</v>
+        <v>-1.0647863474193902E-2</v>
       </c>
       <c r="F123" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>61637.562894322633</v>
+        <v>56685.836436642894</v>
       </c>
       <c r="G123" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2444.062904414568</v>
+        <v>525.22173605310672</v>
       </c>
       <c r="H123" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1289379827704975E-2</v>
+        <v>9.3521365258060207E-3</v>
       </c>
     </row>
     <row r="124" spans="4:8" x14ac:dyDescent="0.2">
@@ -17214,19 +17214,19 @@
       </c>
       <c r="E124" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9540026400904121E-2</v>
+        <v>-2.1982310627168607E-2</v>
       </c>
       <c r="F124" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>64074.713758451529</v>
+        <v>56573.467500664599</v>
       </c>
       <c r="G124" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2437.1508641288965</v>
+        <v>-112.36893597829476</v>
       </c>
       <c r="H124" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>3.9540026400904038E-2</v>
+        <v>-1.982310627168582E-3</v>
       </c>
     </row>
     <row r="125" spans="4:8" x14ac:dyDescent="0.2">
@@ -17235,19 +17235,19 @@
       </c>
       <c r="E125" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7904465744671182E-2</v>
+        <v>3.0334507185313998E-3</v>
       </c>
       <c r="F125" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>67144.17868879289</v>
+        <v>57876.549676317598</v>
       </c>
       <c r="G125" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3069.4649303413607</v>
+        <v>1303.0821756529986</v>
       </c>
       <c r="H125" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>4.7904465744671221E-2</v>
+        <v>2.3033450718531467E-2</v>
       </c>
     </row>
   </sheetData>
